--- a/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>233011</t>
+          <t>001071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩主题优选混合</t>
+          <t>华安媒体互联网混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.71</t>
+          <t>60.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001071</t>
+          <t>006879</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安媒体互联网混合</t>
+          <t>华安智能生活混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>32.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>007460</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>华安成长创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>233011</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>大摩主题优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007614</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票A</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007615</t>
+          <t>010661</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票C</t>
+          <t>安信稳健聚申一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.59</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010661</t>
+          <t>007614</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合C</t>
+          <t>德邦民裕进取量化精锐股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28.59</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006879</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安智能生活混合</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>007615</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安成长创新混合</t>
+          <t>德邦民裕进取量化精锐股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005175</t>
+          <t>233011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
+          <t>大摩主题优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>233011</t>
+          <t>002376</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩主题优选混合</t>
+          <t>国寿安保核心产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>050007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>博时平衡配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>004301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>国寿安保稳信混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>004258</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>国寿安保稳嘉混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>050012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>博时策略混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>050007</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时平衡配置混合</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>54.25</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>050012</t>
+          <t>005175</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时策略混合</t>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>75.60</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002376</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保核心产业灵活配置混合</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004258</t>
+          <t>004302</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳嘉混合A</t>
+          <t>国寿安保稳信混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>26.22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004301</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保稳信混合A</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004302</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保稳信混合C</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.19</v>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.97</v>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2277,13 +2364,301 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2557,7 +2558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2568,17 +2569,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2588,14 +2609,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2604,14 +2647,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.59</v>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2620,14 +2685,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.19</v>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2636,14 +2723,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.97</v>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2652,13 +2761,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
+++ b/数据整理/stocks/A股/深证主板/002677-浙江美大.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2842,7 +2843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,17 +2854,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2873,14 +2894,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
       </c>
     </row>
     <row r="3">
@@ -2889,14 +2932,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2905,14 +2970,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
@@ -2921,14 +3092,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.19</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -2937,14 +3108,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="7">
@@ -2953,13 +3124,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.25</v>
       </c>
     </row>
